--- a/PRTSER SID.xlsx
+++ b/PRTSER SID.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22172755-8617-4090-BF2F-F574D62CF2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -12,7 +13,7 @@
     <sheet name="Março" sheetId="4" r:id="rId3"/>
     <sheet name="Relatorio" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
@@ -194,7 +195,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -232,7 +233,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -267,6 +268,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -302,9 +320,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -477,21 +512,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -502,7 +537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>44927</v>
       </c>
@@ -513,21 +548,21 @@
         <v>57.85</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>44928</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>44929</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>44930</v>
       </c>
@@ -536,7 +571,7 @@
         <v>116.87</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>44931</v>
       </c>
@@ -545,7 +580,7 @@
         <v>128.22999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>44932</v>
       </c>
@@ -554,7 +589,7 @@
         <v>120.56</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>44933</v>
       </c>
@@ -563,7 +598,7 @@
         <v>147.74</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>44934</v>
       </c>
@@ -572,7 +607,7 @@
         <v>110.52</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>44935</v>
       </c>
@@ -581,7 +616,7 @@
         <v>94.77</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>44936</v>
       </c>
@@ -590,7 +625,7 @@
         <v>120.56</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>44937</v>
       </c>
@@ -599,7 +634,7 @@
         <v>189.43</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>44938</v>
       </c>
@@ -608,7 +643,7 @@
         <v>91.67</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>44939</v>
       </c>
@@ -617,7 +652,7 @@
         <v>114.7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>44940</v>
       </c>
@@ -626,7 +661,7 @@
         <v>98.89</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>44941</v>
       </c>
@@ -635,7 +670,7 @@
         <v>83.54</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>44942</v>
       </c>
@@ -644,7 +679,7 @@
         <v>48.74</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>44943</v>
       </c>
@@ -653,7 +688,7 @@
         <v>99.44</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>44944</v>
       </c>
@@ -662,7 +697,7 @@
         <v>33.590000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>44945</v>
       </c>
@@ -671,7 +706,7 @@
         <v>116.55</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>44946</v>
       </c>
@@ -680,7 +715,7 @@
         <v>100.22</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>44947</v>
       </c>
@@ -689,7 +724,7 @@
         <v>57.09</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>44948</v>
       </c>
@@ -698,7 +733,7 @@
         <v>83.72</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>44949</v>
       </c>
@@ -707,7 +742,7 @@
         <v>93.32</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>44950</v>
       </c>
@@ -716,7 +751,7 @@
         <v>63.28</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>44951</v>
       </c>
@@ -725,7 +760,7 @@
         <v>61.77</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>44952</v>
       </c>
@@ -734,7 +769,7 @@
         <v>51.37</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>44953</v>
       </c>
@@ -743,7 +778,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>44954</v>
       </c>
@@ -752,7 +787,7 @@
         <v>73.790000000000006</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>44955</v>
       </c>
@@ -761,7 +796,7 @@
         <v>53.37</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>44956</v>
       </c>
@@ -770,7 +805,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>44957</v>
       </c>
@@ -779,7 +814,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
@@ -792,19 +827,19 @@
         <v>2549.58</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
     </row>
   </sheetData>
@@ -813,21 +848,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -838,7 +873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>44958</v>
       </c>
@@ -847,196 +882,196 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>44959</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>44960</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>44961</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="11"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>44962</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="11"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>44963</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>44964</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>44965</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>44966</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>44967</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>44968</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>44969</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>44970</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>44971</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>44972</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>44973</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>44974</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>44975</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>44976</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>44977</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>44978</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>44979</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>44980</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>44981</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>44982</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>44983</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>44984</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>44985</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="11"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>0</v>
       </c>
@@ -1049,7 +1084,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
@@ -1061,21 +1096,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="C32" sqref="A2:C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1086,162 +1121,162 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="11"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="10"/>
       <c r="C5" s="11"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="10"/>
       <c r="C6" s="11"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="17"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="17"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="17"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="17"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="17"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="17"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="17"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="17"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="17"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="17"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="17"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="17"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="17"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
@@ -1260,26 +1295,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="18"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>5</v>
       </c>
@@ -1289,7 +1324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>6</v>
       </c>
